--- a/Assets/Scripts/Python/Items.xlsx
+++ b/Assets/Scripts/Python/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Unity\BrotatoM\Assets\Scripts\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8CC39F-44EC-4801-ABB8-5AE3DA8FEB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C01DD-14A3-4D42-9EA6-06469FFFC5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2405,10 +2405,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H154" sqref="H154"/>
+      <selection pane="bottomLeft" activeCell="X156" sqref="X156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6938,6 +6938,12 @@
       <c r="H154" t="s">
         <v>503</v>
       </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="U154">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -6969,6 +6975,9 @@
       </c>
       <c r="U155">
         <v>0.15</v>
+      </c>
+      <c r="X155">
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
